--- a/biology/Médecine/Jean_de_Mierzejewski/Jean_de_Mierzejewski.xlsx
+++ b/biology/Médecine/Jean_de_Mierzejewski/Jean_de_Mierzejewski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Pavlovitch Mierzejewski (en russe : Иван Павлович Мержеевский), né en 1838 à Jedrzejow, Royaume du Congrès et mort en 1908 à Paris, est un psychiatre et universitaire russe. Il fut membre associé de la Société médico-psychologique (1878-1908), correspondant étranger de l'Académie nationale de médecine (1897-1908) et professeur de la clinique des maladies mentales à l’Académie médico-chirurgicale de Saint-Pétersbourg (ru).
-En 1868, après avoir été chef de clinique des maladies mentales à Saint Pétersbourg, il obtient au concours une bourse de voyage , qui lui permit de passer deux ans dans les centres scientifiques étrangers[1]. Il resta 18 mois à Paris, suivant les cours de Jules Baillarger et de Jean-Martin Charcot  à la Salpêtrière et de Valentin Magnan à l'asile Sainte-Anne, ce dernier devenant par la suite son ami et son collaborateur. En 1878, il assiste au Congrès international de médecine mentale qui se tient à Paris lors de l’Exposition. Il est professeur titulaire de la chaire des maladies mentales à la Faculté impériale de médecine de Saint-Pétersbourg jusqu'en 1906. Il publia d’importants travaux sur les lésions du cerveau de la paralysie générale.
-Il est mort, le 17 mars 1908 à Paris[2], où il était venu pour assister au jubilé de M. Magnan. Il avait soixante-dix ans.
+En 1868, après avoir été chef de clinique des maladies mentales à Saint Pétersbourg, il obtient au concours une bourse de voyage , qui lui permit de passer deux ans dans les centres scientifiques étrangers. Il resta 18 mois à Paris, suivant les cours de Jules Baillarger et de Jean-Martin Charcot  à la Salpêtrière et de Valentin Magnan à l'asile Sainte-Anne, ce dernier devenant par la suite son ami et son collaborateur. En 1878, il assiste au Congrès international de médecine mentale qui se tient à Paris lors de l’Exposition. Il est professeur titulaire de la chaire des maladies mentales à la Faculté impériale de médecine de Saint-Pétersbourg jusqu'en 1906. Il publia d’importants travaux sur les lésions du cerveau de la paralysie générale.
+Il est mort, le 17 mars 1908 à Paris, où il était venu pour assister au jubilé de M. Magnan. Il avait soixante-dix ans.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Études sur les lésions cérébrales dans la paralysie générale , Paris: G. Masson, 1875; 46 p. [Extrait des Archives de physiologie normale et pathologique 2, 1875 ; 195-235].
 Note sur les cerveaux d'idiots en général, avec la description d'un nouveau cas d'idiotie, Revue d’anthropologie 5, 1876; 21-33.
